--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530742.8579345823</v>
+        <v>574703.707859192</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12462791.62801786</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6927973.460166833</v>
+        <v>7622616.185043057</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341851.060518838</v>
+        <v>8997248.300753195</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.396723986041692</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>211.2228407230373</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.40229248514523</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
-        <v>64.27923873328326</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.856958822918623</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415048</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415048</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.51149230610424</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6.396723986041382</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.45752609970764</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>135.1575449208055</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>65.19363848345067</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.7788072341316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>288.9930561374575</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>6.396723986041374</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>2.097521993176758</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>162.3056641808066</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>66.08647412956047</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>29.00708539155832</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3912383048497</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>194.237792851779</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.27121548343264</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>25.38552364629678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>54.34809064563621</v>
+        <v>124.9963678339979</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>19.36824379237586</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>171.3741272822821</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>34.31123915722852</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>282.2717811533783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744764</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>19.2467264039688</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>125.9673299442111</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>262.2298393743341</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31354443380414</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.24177743937163</v>
+        <v>41.44021593277593</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>80.50796942908565</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>116.448599486681</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>274.4291087681268</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>105.0023863360929</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.01006515217614</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>115.1269998040535</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>178.647843195296</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>37.67376214905553</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>129.9565085941265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>90.41948680756566</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>345.8977077430325</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3082,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>33.82128629323112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6898441249713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>52.98066560919413</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>128.6259131879047</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>60.46288169317307</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756572</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>53.7899890969033</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>96.32693285397018</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>136.0330956397396</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>215.1846125003597</v>
+        <v>177.6639791994873</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.8823210979751</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>162.6159201417025</v>
+        <v>196.1623266599251</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>54.79134020099044</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>88.0186296332094</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>745.8753877952743</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="C2" t="n">
-        <v>745.8753877952743</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="D2" t="n">
-        <v>503.6451371472896</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="E2" t="n">
-        <v>261.414886499305</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="F2" t="n">
-        <v>19.18463585132038</v>
+        <v>210.8831693494288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132038</v>
+        <v>21.46338433294369</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132038</v>
+        <v>21.46338433294369</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>40.4188858447036</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192958</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859559</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444239</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566019</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660191</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660191</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660191</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660191</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660191</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="X2" t="n">
-        <v>745.8753877952743</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="Y2" t="n">
-        <v>745.8753877952743</v>
+        <v>589.7227393823989</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132038</v>
+        <v>30.55991817042201</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450197</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607136</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153183</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679829</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367434</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640421</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660191</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261067</v>
+        <v>598.8192732198772</v>
       </c>
       <c r="U3" t="n">
-        <v>534.1037092372724</v>
+        <v>409.3994882033921</v>
       </c>
       <c r="V3" t="n">
-        <v>469.175185264259</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="W3" t="n">
-        <v>226.9449346162743</v>
+        <v>219.9797031869071</v>
       </c>
       <c r="X3" t="n">
-        <v>226.9449346162743</v>
+        <v>30.55991817042201</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.18463585132038</v>
+        <v>30.55991817042201</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.10075587447051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>25.10075587447051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132038</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>373.5399563830978</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030905</v>
+        <v>559.1902876777548</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916894</v>
+        <v>721.928491114305</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456591</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660191</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184244</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="T4" t="n">
-        <v>751.7915078184244</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="U4" t="n">
-        <v>509.5612571704398</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="V4" t="n">
-        <v>267.3310065224551</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>25.10075587447051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>25.10075587447051</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.10075587447051</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.789405660333</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="C5" t="n">
-        <v>101.4117490931551</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="D5" t="n">
-        <v>21.09711040012049</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="E5" t="n">
-        <v>21.09711040012049</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.789405660333</v>
+        <v>400.3029543659128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>392.4672266287267</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>245.9326686556116</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>108.3934874780608</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>899.9968635655364</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>671.8610176023499</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379027</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379027</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379027</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>227.7441545555096</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>80.85420705759921</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>80.85420705759921</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735295</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="V7" t="n">
-        <v>659.6853352735295</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="W7" t="n">
-        <v>393.3076787063516</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="X7" t="n">
-        <v>165.3181278083342</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>557.3057129681424</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.2813744547168</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C8" t="n">
-        <v>335.2813744547168</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>335.2813744547168</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>589.7227393823974</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W8" t="n">
-        <v>1098.886464691608</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X8" t="n">
-        <v>725.4207064305285</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.2813744547168</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>15.00204697330528</v>
       </c>
       <c r="K9" t="n">
-        <v>633.2955414799095</v>
+        <v>67.13418877024182</v>
       </c>
       <c r="L9" t="n">
-        <v>890.846677039897</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M9" t="n">
-        <v>1210.753572508406</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N9" t="n">
-        <v>1553.536096503038</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699312</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="T9" t="n">
-        <v>2004.514711570505</v>
+        <v>722.9192922843274</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.514711570505</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.362603338762</v>
+        <v>344.0797222513581</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.12524661056</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>154.6599372348734</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>110.1232108103764</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>612.561488276859</v>
       </c>
       <c r="S10" t="n">
-        <v>1287.175893077873</v>
+        <v>423.1417032603743</v>
       </c>
       <c r="T10" t="n">
-        <v>1063.572035770497</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U10" t="n">
-        <v>774.4457147445203</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="V10" t="n">
-        <v>519.7612265386334</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="W10" t="n">
-        <v>519.7612265386334</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="X10" t="n">
-        <v>291.7716756406161</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="Y10" t="n">
-        <v>291.7716756406161</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2240.58245709072</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C11" t="n">
-        <v>1871.619940150309</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D11" t="n">
-        <v>1513.354241543558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2630.721789066532</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2240.58245709072</v>
+        <v>1502.309837160186</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.7590362090546</v>
+        <v>406.7468436324423</v>
       </c>
       <c r="C13" t="n">
-        <v>510.7590362090546</v>
+        <v>406.7468436324423</v>
       </c>
       <c r="D13" t="n">
-        <v>360.6423967967188</v>
+        <v>406.7468436324423</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>406.7468436324423</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>259.8568961345319</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>92.15405950925086</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5229,22 +5229,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971664</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.676735765777</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W13" t="n">
-        <v>1004.259565728817</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X13" t="n">
-        <v>776.2700148307995</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y13" t="n">
-        <v>555.4774356872693</v>
+        <v>588.395308462682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605072</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5363,7 +5363,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,34 +5375,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>530.9956795433841</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C16" t="n">
-        <v>511.4317969248226</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D16" t="n">
-        <v>361.3151575124869</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.426274415171</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>933.436723517154</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.6441443736238</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2047.583838282732</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.62132134232</v>
+        <v>1583.077587705312</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1224.811889098561</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1224.811889098561</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>813.8259843089536</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>398.7535341539501</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>101.1699337627173</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883007</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.306689612893</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.306689612893</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y17" t="n">
-        <v>2434.183678346854</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5618,22 +5618,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1751.913851851648</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V19" t="n">
-        <v>986.3598813409312</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1501.213961756483</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.251444816072</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y20" t="n">
-        <v>1887.813801820605</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>463.6594280995009</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C22" t="n">
-        <v>294.723245171594</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>144.6066057592583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
         <v>66.51211643218342</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971288</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X22" t="n">
-        <v>866.1004720732708</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y22" t="n">
-        <v>645.3078929297407</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.332234886374</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C23" t="n">
-        <v>909.3697179459625</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D23" t="n">
-        <v>909.3697179459625</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919558</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.932074950496</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.3382468580006</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C25" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,25 +6168,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.973366846992</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U25" t="n">
-        <v>1556.870499972635</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V25" t="n">
-        <v>1302.186011766748</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.768841729788</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X25" t="n">
         <v>784.7792908317705</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1127.748203495403</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C26" t="n">
-        <v>758.7856865549918</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>758.7856865549918</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>758.7856865549918</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796417</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535337</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.348043559525</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>645.3078929297411</v>
       </c>
       <c r="D28" t="n">
         <v>529.0179941377679</v>
@@ -6372,16 +6372,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X28" t="n">
-        <v>872.3234075408147</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y28" t="n">
-        <v>872.3234075408147</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C29" t="n">
         <v>1278.358723975039</v>
@@ -6454,19 +6454,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X29" t="n">
-        <v>2033.921080979572</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.6375233676413</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C31" t="n">
-        <v>511.7013404397344</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D31" t="n">
-        <v>511.7013404397344</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>511.7013404397344</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6663,10 +6663,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>680.6375233676413</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>680.6375233676413</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1944.904841306683</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C32" t="n">
-        <v>1575.942324366272</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>1128.559790961281</v>
       </c>
       <c r="F32" t="n">
         <v>779.1681669784198</v>
@@ -6694,34 +6694,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2721.644013346617</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>2721.644013346617</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2331.504681370805</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>231.8553933260938</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218343</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6894,16 +6894,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1619.798686923957</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>542.6581844590789</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>127.5857343040754</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997116</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.863183736036</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1749.723851760224</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1681.275341595215</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1392.172474720858</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1137.487986514971</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7186,37 +7186,37 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.483610522581</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>2531.483610522581</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
         <v>2434.183678346854</v>
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>553.2677753977071</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>384.3315924698002</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1789.887380775624</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1568.120765345151</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1279.017898470794</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1024.333410264907</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>734.9162402279468</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>734.9162402279468</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.9162402279468</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
         <v>1636.624422581789</v>
@@ -7411,7 +7411,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7447,16 +7447,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W41" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X41" t="n">
-        <v>2413.363594621723</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2023.224262645911</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2513404403937</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124868</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
         <v>66.5121164321834</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X43" t="n">
-        <v>680.6375233676413</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.6375233676413</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1811.579746109089</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C44" t="n">
-        <v>1442.617229168678</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
@@ -7690,10 +7690,10 @@
         <v>2961.784676410103</v>
       </c>
       <c r="X44" t="n">
-        <v>2588.318918149023</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y44" t="n">
-        <v>2198.179586173211</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3382468580007</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>121.856904513992</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218343</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1556.870499972636</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>1302.186011766749</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.768841729788</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X46" t="n">
-        <v>784.7792908317706</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.9867116882405</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923475</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.5141140770251</v>
+        <v>46.56605103777649</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15.73946458758468</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777586</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22552,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791782</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.122421930757</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002067</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>119.074593133933</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>158.5082599554317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.3062065031705</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
-        <v>168.521348416142</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941484</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>142.7585141952937</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.254668629176</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>36.19408632377989</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659223</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232323</v>
+        <v>86.96510614773325</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>275.1715493145787</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>406.7011092440167</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>8.384231251032077</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>59.68344266407126</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>88.2400323483689</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.8058461179632</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>92.93731393480425</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>25.91829388988694</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>244.772536578989</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>142.9716904002071</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>30.45755412995715</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>82.45333723168476</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>19.25466862917639</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36.19408632378025</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>38.18406822271731</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>189.5775679605365</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5391317674121</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>192.0001458042746</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.5607646985047</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>119.369491268024</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>331.8898480104174</v>
+        <v>261.2415708220557</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>147.878577306252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,13 +23703,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>47.21052606981272</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.265690615697402</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>103.9661575026753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696548</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>267.2762719326222</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>256.7665117192695</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>92.45320224634889</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12041821276503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>112.4554808976374</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>352.996161216682</v>
+        <v>344.7977227232777</v>
       </c>
     </row>
     <row r="24">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.0409798470835</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>109.2610559023562</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>132.4469369735846</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>145.9927856228091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.8219150297612</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.4884732141589</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>149.1044152748389</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>332.0573385294135</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.46453942880478</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1651665445291</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>60.97833799867897</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>315.4196824241819</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.55697697365656</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>165.6039877429006</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>254.1079284755758</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>234.1448826941474</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>58.19598621064664</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.7589601792659</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25450,16 +25450,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>289.9110058020834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>53.7359296917023</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>154.5464881781093</v>
+        <v>192.0671214789818</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.94965908396225</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313105</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>192.0671214789804</v>
+        <v>158.5207149607579</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>91.64262244557872</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>198.1932085724035</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>515979.6641158586</v>
+        <v>471997.7018764839</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>535324.6760033175</v>
+        <v>471997.7018764837</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731289.1033889868</v>
+        <v>471997.7018764836</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879911.6497810571</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879911.6497810573</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186902.592222389</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231801</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="F2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
         <v>323947.2440223745</v>
@@ -26346,16 +26346,16 @@
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223747</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395181</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599825</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669101</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.3107835361</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944804</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932026</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608622</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14501.70850239081</v>
+        <v>12034.19304942663</v>
       </c>
       <c r="C4" t="n">
-        <v>15438.57384129047</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="D4" t="n">
-        <v>18888.92742949787</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26432,7 +26432,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551680.328703051</v>
+        <v>-490107.7567055611</v>
       </c>
       <c r="C6" t="n">
-        <v>78491.65437099687</v>
+        <v>101249.145815285</v>
       </c>
       <c r="D6" t="n">
-        <v>-136790.9921517702</v>
+        <v>101249.1458152847</v>
       </c>
       <c r="E6" t="n">
-        <v>-40856.32263610607</v>
+        <v>-388831.6501346088</v>
       </c>
       <c r="F6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.993499059</v>
       </c>
       <c r="G6" t="n">
-        <v>235174.423130804</v>
+        <v>238302.9934990588</v>
       </c>
       <c r="H6" t="n">
-        <v>235174.4231308044</v>
+        <v>238302.9934990591</v>
       </c>
       <c r="I6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990589</v>
       </c>
       <c r="J6" t="n">
-        <v>172430.1123472679</v>
+        <v>189238.0487705143</v>
       </c>
       <c r="K6" t="n">
-        <v>229021.8012598593</v>
+        <v>238302.993499059</v>
       </c>
       <c r="L6" t="n">
-        <v>164713.6162214837</v>
+        <v>238302.9934990589</v>
       </c>
       <c r="M6" t="n">
-        <v>163083.0705147181</v>
+        <v>77846.55163118169</v>
       </c>
       <c r="N6" t="n">
-        <v>235174.423130804</v>
+        <v>238302.9934990588</v>
       </c>
       <c r="O6" t="n">
-        <v>235174.423130804</v>
+        <v>238302.9934990589</v>
       </c>
       <c r="P6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990591</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141341</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000137</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000126</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246574</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000137</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219185</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472414</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459996945</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353401</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>310.0417335315907</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
